--- a/操作说明/钟山函数说明.xlsx
+++ b/操作说明/钟山函数说明.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8802" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="shan_stringr" sheetId="1" r:id="rId1"/>
     <sheet name="project_insurance_store" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="python" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>序号</t>
   </si>
@@ -100,6 +100,36 @@
   </si>
   <si>
     <t>读取文件名</t>
+  </si>
+  <si>
+    <t>函数或套路</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>读写文件</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/u011389474/article/details/60140311</t>
+  </si>
+  <si>
+    <t>文档格式</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_40449300/article/details/79143971</t>
+  </si>
+  <si>
+    <t>readlines()</t>
+  </si>
+  <si>
+    <t>读写行</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/xiao-apple36/p/9219565.html</t>
   </si>
 </sst>
 </file>
@@ -107,15 +137,135 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -129,109 +279,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,35 +294,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,37 +304,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,145 +460,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +513,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,15 +544,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,8 +566,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,176 +595,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1052,28 +1081,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1088,171 +1117,171 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="A10:B10 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="1"/>
-    <col min="2" max="2" width="20.15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.65" style="1" customWidth="1"/>
-    <col min="5" max="5" width="68.45" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.8" style="1"/>
+    <col min="1" max="1" width="8.8" style="3"/>
+    <col min="2" max="2" width="20.15" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.4" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.65" style="3" customWidth="1"/>
+    <col min="5" max="5" width="68.45" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.8" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1265,14 +1294,80 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="8.8" style="1"/>
+    <col min="2" max="2" width="10.9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.8" style="1"/>
+    <col min="4" max="4" width="53" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.8" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://blog.csdn.net/u011389474/article/details/60140311" tooltip="https://blog.csdn.net/u011389474/article/details/60140311"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://blog.csdn.net/weixin_40449300/article/details/79143971" tooltip="https://blog.csdn.net/weixin_40449300/article/details/79143971"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://www.cnblogs.com/xiao-apple36/p/9219565.html" tooltip="https://www.cnblogs.com/xiao-apple36/p/9219565.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/操作说明/钟山函数说明.xlsx
+++ b/操作说明/钟山函数说明.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="shan_stringr" sheetId="1" r:id="rId1"/>
     <sheet name="project_insurance_store" sheetId="2" r:id="rId2"/>
     <sheet name="python" sheetId="3" r:id="rId3"/>
+    <sheet name="Rstudip" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>序号</t>
   </si>
@@ -81,6 +82,18 @@
     <t>list(data)</t>
   </si>
   <si>
+    <t>shan_get_file_name</t>
+  </si>
+  <si>
+    <t>file_dir:主目录</t>
+  </si>
+  <si>
+    <t>获得一个文件夹里所有的csv与pdf文件路径(包括子目录)</t>
+  </si>
+  <si>
+    <t>shan_mkdir</t>
+  </si>
+  <si>
     <t>os$listdir</t>
   </si>
   <si>
@@ -130,6 +143,15 @@
   </si>
   <si>
     <t>https://www.cnblogs.com/xiao-apple36/p/9219565.html</t>
+  </si>
+  <si>
+    <t>%&gt;%</t>
+  </si>
+  <si>
+    <t>管道结构</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/zhaozhn5/article/details/79001384</t>
   </si>
 </sst>
 </file>
@@ -137,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -152,43 +174,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,79 +285,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +300,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -304,6 +326,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,37 +452,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,133 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +517,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,35 +555,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,17 +582,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,141 +635,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1076,33 +1095,33 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1115,174 +1134,196 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="A10:B10 E10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="3"/>
-    <col min="2" max="2" width="20.15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.4" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.65" style="3" customWidth="1"/>
-    <col min="5" max="5" width="68.45" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.8" style="3"/>
+    <col min="1" max="1" width="8.8" style="2"/>
+    <col min="2" max="2" width="20.15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.4" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.65" style="2" customWidth="1"/>
+    <col min="5" max="5" width="68.45" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.8" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3">
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1296,8 +1337,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1310,17 +1351,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1328,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1342,24 +1383,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1371,4 +1412,75 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.1" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="10.9" customWidth="1"/>
+    <col min="3" max="3" width="8.95" customWidth="1"/>
+    <col min="4" max="4" width="50.45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://blog.csdn.net/zhaozhn5/article/details/79001384" tooltip="https://blog.csdn.net/zhaozhn5/article/details/79001384"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>